--- a/Token id's.xlsx
+++ b/Token id's.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/a_jansen1_student_tue_nl/Documents/Documents/Uni/Master/Year 2/M21/tangible tokens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/a_jansen1_student_tue_nl/Documents/Documents/Uni/Master/Year 2/FMP/Toolkit/Tokens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D717DA-580F-4E03-883A-58A93085192D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{A4D717DA-580F-4E03-883A-58A93085192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{104F6409-8692-425B-8FE5-028CBBD83982}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C47D3495-1598-445B-B319-BE4D85B2A73C}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{C47D3495-1598-445B-B319-BE4D85B2A73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Tokens</t>
   </si>
@@ -123,9 +123,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -180,13 +177,13 @@
     <t>s</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Empty</t>
+    <t>z</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,11 +231,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -257,25 +249,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -588,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDC0143-D55A-4E97-AC03-0F560DF47D37}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>98</v>
@@ -644,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>99</v>
@@ -655,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -666,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>101</v>
@@ -677,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>102</v>
@@ -693,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>103</v>
@@ -704,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>104</v>
@@ -726,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>106</v>
@@ -737,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>107</v>
@@ -748,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>108</v>
@@ -764,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>109</v>
@@ -775,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>110</v>
@@ -786,92 +772,92 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>111</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>113</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26">
-        <v>114</v>
+      <c r="A26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C29">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -884,10 +870,10 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -895,21 +881,10 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
